--- a/similarities/split_global/harmonic_similarity_timestamps_207.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_207.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,374 +484,382 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Bb', 'Eb', 'Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:01.150000', '0:00:07.605000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000'), ('0:00:26.960000', '0:00:33.500000')]</t>
+          <t>('0:01:00.761383', '0:01:12.162380')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:09.162102', '0:00:17.463236')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:07.142059')]</t>
+          <t>('0:04:21.828000', '0:04:35.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:05.300000', '0:01:13.440000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=65.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:14.983242')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D']]</t>
+          <t>['G', 'D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F', 'Bb:7', 'F']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:19.240204', '0:02:24.766553')]</t>
+          <t>('0:00:24.317664', '0:00:39.816984')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.880000', '0:00:15.540000')]</t>
+          <t>('0:00:04.605000', '0:00:21.095000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=139.240204']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=24.317664</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:min', 'F:7/A', 'A#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['C:min', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:34.240000', '0:00:40.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:26.660000', '0:00:30.531000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=34.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=26.66</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:15.560000', '0:01:28')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.870000', '0:00:25.690000')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -859,335 +867,343 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>['F', 'C:7', 'F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.040000', '0:00:28.920000'), ('0:00:07.840000', '0:00:11.420000')]</t>
+          <t>('0:01:19.980000', '0:01:39.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
+          <t>('0:00:22.170000', '0:00:32.220000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:00.660000', '0:00:08.220000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:39.300000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=39.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D/5', 'E/4', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:36.200000')]</t>
+          <t>('0:00:05.544000', '0:00:09.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:00:06.126439', '0:00:09.980952')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=5.544</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=6.126439</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['D:min7', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'G:(3,5,b7,b9)', 'C:min']]</t>
+          <t>['B:min7', 'E:7', 'A:maj6']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:50.460000', '0:00:54.480000')]</t>
+          <t>('0:00:20.730000', '0:00:24.030000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.760000', '0:00:27.920000')]</t>
+          <t>('0:00:20.300000', '0:00:23.100000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=50.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=20.73</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=21.76']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=20.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['G', 'D', 'C', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D/5', 'A', 'G/2', 'D/5']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.240000', '0:00:22.400000')]</t>
+          <t>('0:00:34.169705', '0:00:38.767256')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:22.100000', '0:00:29.560000')]</t>
+          <t>('0:01:02.291000', '0:01:06.637000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=34.169705</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=62.291</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
